--- a/simple/course_60.xlsx
+++ b/simple/course_60.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0371DCB1-AE4E-4B81-81F8-2BC1F57760F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
   <si>
     <t>รหัสวิชา</t>
   </si>
@@ -31,9 +35,6 @@
     <t>Algorithm Design and Analysis</t>
   </si>
   <si>
-    <t>3(3-0-null)</t>
-  </si>
-  <si>
     <t>วิชาบังคับ</t>
   </si>
   <si>
@@ -43,9 +44,6 @@
     <t>Software Engineering</t>
   </si>
   <si>
-    <t>4(3-1-null)</t>
-  </si>
-  <si>
     <t>วิชาแกน</t>
   </si>
   <si>
@@ -395,19 +393,22 @@
   </si>
   <si>
     <t>6(0-0-0)</t>
+  </si>
+  <si>
+    <t>4(3-1-6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -770,11 +771,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -796,798 +802,798 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>79</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>81</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>83</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>85</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>91</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>92</v>
       </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>93</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>95</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>97</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>98</v>
       </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>99</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>100</v>
       </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>101</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>103</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>105</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>106</v>
       </c>
-      <c r="C49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>107</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C51" t="s">
         <v>109</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>110</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
         <v>111</v>
       </c>
-      <c r="D51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>112</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>113</v>
       </c>
-      <c r="C52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>114</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>115</v>
       </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>116</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>117</v>
       </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C55" t="s">
         <v>118</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>119</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
         <v>120</v>
       </c>
-      <c r="D55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>121</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>122</v>
       </c>
-      <c r="C56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>123</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>124</v>
       </c>
-      <c r="C57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
         <v>125</v>
       </c>
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s">
-        <v>127</v>
-      </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/simple/course_60.xlsx
+++ b/simple/course_60.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0371DCB1-AE4E-4B81-81F8-2BC1F57760F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E9555-1217-4FE3-AC41-CE9EB5D766AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>รหัสวิชา</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Selected Topics in Computer Engineering and Informatics</t>
   </si>
   <si>
-    <t>0(0-0-0)</t>
-  </si>
-  <si>
     <t>03603498</t>
   </si>
   <si>
@@ -392,10 +389,10 @@
     <t>Co-operative Education</t>
   </si>
   <si>
-    <t>6(0-0-0)</t>
-  </si>
-  <si>
     <t>4(3-1-6)</t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
@@ -431,8 +428,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,7 +773,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1543,8 +1541,8 @@
       <c r="B55" t="s">
         <v>117</v>
       </c>
-      <c r="C55" t="s">
-        <v>118</v>
+      <c r="C55" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
@@ -1552,13 +1550,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
         <v>119</v>
       </c>
-      <c r="B56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" t="s">
-        <v>118</v>
+      <c r="C56" s="1">
+        <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>60</v>
@@ -1566,10 +1564,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
         <v>121</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -1580,13 +1578,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
         <v>123</v>
       </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
-        <v>125</v>
+      <c r="C58" s="1">
+        <v>6</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
